--- a/excel/mag_betweenness_centrality.xlsx
+++ b/excel/mag_betweenness_centrality.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B239"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.182646008361726</v>
+        <v>0.1991297910352045</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09623737327075996</v>
+        <v>0.1049227858910012</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07899818724522668</v>
+        <v>0.08612776517484735</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05828495942053701</v>
+        <v>0.06354517075960929</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05800126316111785</v>
+        <v>0.06323587094319215</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05066697391827422</v>
+        <v>0.05523966288247853</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04413013482985435</v>
+        <v>0.04811287476713215</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04004607700702813</v>
+        <v>0.04366023116364074</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0382961173585861</v>
+        <v>0.04175233784453701</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03761519524285709</v>
+        <v>0.04100996258086395</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03149359937066438</v>
+        <v>0.03433589333749171</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03007420113900432</v>
+        <v>0.0327883945675956</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02851785341347832</v>
+        <v>0.03109158662669427</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0268288129294146</v>
+        <v>0.02925011042002295</v>
       </c>
     </row>
     <row r="16">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02557148607396089</v>
+        <v>0.02787930995066041</v>
       </c>
     </row>
     <row r="17">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02370735893585068</v>
+        <v>0.02584694553818564</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02218770041459107</v>
+        <v>0.02419013799830236</v>
       </c>
     </row>
     <row r="19">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02085559434843274</v>
+        <v>0.02273780950248606</v>
       </c>
     </row>
     <row r="20">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02075409056570472</v>
+        <v>0.02262714501424888</v>
       </c>
     </row>
     <row r="21">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02058492255675539</v>
+        <v>0.02244270961062809</v>
       </c>
     </row>
     <row r="22">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02056908539287436</v>
+        <v>0.02242544314440468</v>
       </c>
     </row>
     <row r="23">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01988761922696287</v>
+        <v>0.0216824747300785</v>
       </c>
     </row>
     <row r="24">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01837041129320222</v>
+        <v>0.02002833894295323</v>
       </c>
     </row>
     <row r="25">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0172463454576288</v>
+        <v>0.01880282628622849</v>
       </c>
     </row>
     <row r="26">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0162173095909003</v>
+        <v>0.01768092004284892</v>
       </c>
     </row>
     <row r="27">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01461765672488954</v>
+        <v>0.01593689867717675</v>
       </c>
     </row>
     <row r="28">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01395594717067536</v>
+        <v>0.01521546990663549</v>
       </c>
     </row>
     <row r="29">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01386715178255517</v>
+        <v>0.01511866074425706</v>
       </c>
     </row>
     <row r="30">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01359667898295062</v>
+        <v>0.01482377780348513</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01204651187029713</v>
+        <v>0.01313370827510543</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01133200219393127</v>
+        <v>0.01235471417704892</v>
       </c>
     </row>
     <row r="33">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01101558338458805</v>
+        <v>0.0120097386040852</v>
       </c>
     </row>
     <row r="34">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01062412894404636</v>
+        <v>0.01158295544225179</v>
       </c>
     </row>
     <row r="35">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01003380123072567</v>
+        <v>0.01093935071609193</v>
       </c>
     </row>
     <row r="36">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.009854048447441852</v>
+        <v>0.01074337526338773</v>
       </c>
     </row>
     <row r="37">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.009806279382350753</v>
+        <v>0.01069129504529341</v>
       </c>
     </row>
     <row r="38">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.009777373812404008</v>
+        <v>0.01065978075075788</v>
       </c>
     </row>
     <row r="39">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.009668837452445737</v>
+        <v>0.01054144899594938</v>
       </c>
     </row>
     <row r="40">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.00919534298561251</v>
+        <v>0.01002522170424699</v>
       </c>
     </row>
     <row r="41">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.008200230527868325</v>
+        <v>0.008940300453875699</v>
       </c>
     </row>
     <row r="42">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.007973968390188085</v>
+        <v>0.008693618182526995</v>
       </c>
     </row>
     <row r="43">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.007960207394623517</v>
+        <v>0.00867861525858802</v>
       </c>
     </row>
     <row r="44">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007521309929744478</v>
+        <v>0.008200107344557096</v>
       </c>
     </row>
     <row r="45">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.007205036940397091</v>
+        <v>0.007855290751828196</v>
       </c>
     </row>
     <row r="46">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.006111807247391039</v>
+        <v>0.006663397196231639</v>
       </c>
     </row>
     <row r="47">
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.004778735550336913</v>
+        <v>0.005210015921434724</v>
       </c>
     </row>
     <row r="48">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.004776760815835362</v>
+        <v>0.005207862967356116</v>
       </c>
     </row>
     <row r="49">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.004579025040202983</v>
+        <v>0.00499228155917183</v>
       </c>
     </row>
     <row r="50">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.004283393883719882</v>
+        <v>0.004669969722510242</v>
       </c>
     </row>
     <row r="51">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.003817450341569084</v>
+        <v>0.004161974825633347</v>
       </c>
     </row>
     <row r="52">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.00374696103259416</v>
+        <v>0.004085123864080475</v>
       </c>
     </row>
     <row r="53">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.003441903649778401</v>
+        <v>0.003752535085170277</v>
       </c>
     </row>
     <row r="54">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.003223250034201121</v>
+        <v>0.003514148004228628</v>
       </c>
     </row>
     <row r="55">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.003223250034201121</v>
+        <v>0.003514148004228628</v>
       </c>
     </row>
     <row r="56">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.002907529575471227</v>
+        <v>0.003169933807946214</v>
       </c>
     </row>
     <row r="57">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.002808946867951424</v>
+        <v>0.003062454021641632</v>
       </c>
     </row>
     <row r="58">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.002808946867951424</v>
+        <v>0.003062454021641632</v>
       </c>
     </row>
     <row r="59">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.002808946867951424</v>
+        <v>0.003062454021641632</v>
       </c>
     </row>
     <row r="60">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.002808946867951424</v>
+        <v>0.003062454021641632</v>
       </c>
     </row>
     <row r="61">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.002808946867951424</v>
+        <v>0.003062454021641632</v>
       </c>
     </row>
     <row r="62">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.002808946867951424</v>
+        <v>0.003062454021641632</v>
       </c>
     </row>
     <row r="63">
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.002808946867951424</v>
+        <v>0.003062454021641632</v>
       </c>
     </row>
     <row r="64">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.002808946867951424</v>
+        <v>0.003062454021641632</v>
       </c>
     </row>
     <row r="65">
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.002808946867951424</v>
+        <v>0.003062454021641632</v>
       </c>
     </row>
     <row r="66">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.002805680195451275</v>
+        <v>0.00305889253229856</v>
       </c>
     </row>
     <row r="67">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.00261127473705591</v>
+        <v>0.002846942002124891</v>
       </c>
     </row>
     <row r="68">
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.00261127473705591</v>
+        <v>0.002846942002124891</v>
       </c>
     </row>
     <row r="69">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.00224734629897044</v>
+        <v>0.002450169061518355</v>
       </c>
     </row>
     <row r="70">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.00203062953038033</v>
+        <v>0.002213893627796823</v>
       </c>
     </row>
     <row r="71">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.001963561985335266</v>
+        <v>0.002140773244001639</v>
       </c>
     </row>
     <row r="72">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.001804812993455913</v>
+        <v>0.001967697172624384</v>
       </c>
     </row>
     <row r="73">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.001515870540560383</v>
+        <v>0.001652677694332059</v>
       </c>
     </row>
     <row r="74">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.001515870540560383</v>
+        <v>0.001652677694332059</v>
       </c>
     </row>
     <row r="75">
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.001318087341472881</v>
+        <v>0.001437044582730911</v>
       </c>
     </row>
     <row r="76">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.001228413007849972</v>
+        <v>0.001339277150112367</v>
       </c>
     </row>
     <row r="77">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.001228413007849972</v>
+        <v>0.001339277150112367</v>
       </c>
     </row>
     <row r="78">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.001228413007849972</v>
+        <v>0.001339277150112367</v>
       </c>
     </row>
     <row r="79">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.001228413007849972</v>
+        <v>0.001339277150112367</v>
       </c>
     </row>
     <row r="80">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.001228413007849972</v>
+        <v>0.001339277150112367</v>
       </c>
     </row>
     <row r="81">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.001228413007849972</v>
+        <v>0.001339277150112367</v>
       </c>
     </row>
     <row r="82">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0009039975056788321</v>
+        <v>0.0009855831836503145</v>
       </c>
     </row>
     <row r="83">
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0009039975056788321</v>
+        <v>0.0009855831836503145</v>
       </c>
     </row>
     <row r="84">
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0009039975056788321</v>
+        <v>0.0009855831836503145</v>
       </c>
     </row>
     <row r="85">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.0009039975056788321</v>
+        <v>0.0009855831836503145</v>
       </c>
     </row>
     <row r="86">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0008032520035096201</v>
+        <v>0.0008757454107110846</v>
       </c>
     </row>
     <row r="87">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.0006886153686483741</v>
+        <v>0.0007507628318436096</v>
       </c>
     </row>
     <row r="88">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0006727581147883216</v>
+        <v>0.0007334744625227165</v>
       </c>
     </row>
     <row r="89">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0006727581147883216</v>
+        <v>0.0007334744625227165</v>
       </c>
     </row>
     <row r="90">
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0005457773582574043</v>
+        <v>0.0005950337063282744</v>
       </c>
     </row>
     <row r="91">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0002264809495017605</v>
+        <v>0.0002469208309136577</v>
       </c>
     </row>
     <row r="92">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0002264809495017605</v>
+        <v>0.0002469208309136577</v>
       </c>
     </row>
     <row r="93">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0001760690518498143</v>
+        <v>0.000191959264903197</v>
       </c>
     </row>
     <row r="94">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8.682079321427101e-05</v>
+        <v>9.465636049394967e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.68182793391976e-05</v>
+        <v>2.923862617441815e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5.9596176309328e-06</v>
+        <v>6.497472483204034e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>5.9596176309328e-06</v>
+        <v>6.497472483204034e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1391,7 +1391,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Teaching Mathematics and its Applications</t>
+          <t>Journal of Experimental and Theoretical Artificial Intelligence</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1401,7 +1401,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Journal of Experimental and Theoretical Artificial Intelligence</t>
+          <t>International Journal of Data Mining and Bioinformatics</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1411,7 +1411,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>International Journal of Data Mining and Bioinformatics</t>
+          <t>Physical Chemistry Chemical Physics</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1421,7 +1421,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Physical Chemistry Chemical Physics</t>
+          <t>Protein Journal</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1431,7 +1431,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Protein Journal</t>
+          <t>Linear Algebra and Its Applications</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1441,7 +1441,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Linear Algebra and Its Applications</t>
+          <t>Mathematics of Computation</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1451,7 +1451,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Mathematics of Computation</t>
+          <t>Applicable Algebra in Engineering, Communications and Computing</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1461,7 +1461,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Applicable Algebra in Engineering, Communications and Computing</t>
+          <t>TOP</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1471,7 +1471,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TOP</t>
+          <t>International Journal of Clinical and Experimental Medicine</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1481,7 +1481,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>International Journal of Clinical and Experimental Medicine</t>
+          <t>Kragujevac Journal of Mathematics</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1491,7 +1491,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Kragujevac Journal of Mathematics</t>
+          <t>RAIRO - Operations Research</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1501,7 +1501,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RAIRO - Operations Research</t>
+          <t>Journal of B.U.ON.</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1511,7 +1511,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Journal of B.U.ON.</t>
+          <t>Plant Cell, Tissue and Organ Culture</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1521,7 +1521,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Plant Cell, Tissue and Organ Culture</t>
+          <t>Computer Languages, Systems and Structures</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1531,7 +1531,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Computer Languages, Systems and Structures</t>
+          <t>Constraints</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1541,7 +1541,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Constraints</t>
+          <t>Filomat</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1551,7 +1551,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Filomat</t>
+          <t>International Journal of Simulation Modelling</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1561,7 +1561,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>International Journal of Simulation Modelling</t>
+          <t>Applied and Computational Mathematics</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1571,7 +1571,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Applied and Computational Mathematics</t>
+          <t>WSEAS Transactions on Computers</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1581,7 +1581,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>WSEAS Transactions on Computers</t>
+          <t>Journal of Computational Biology</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1591,7 +1591,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Journal of Computational Biology</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1601,7 +1601,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Journal of Immunological Methods</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1611,7 +1611,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Journal of Immunological Methods</t>
+          <t>Journal of Multiple-Valued Logic and Soft Computing</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1621,7 +1621,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Journal of Multiple-Valued Logic and Soft Computing</t>
+          <t>Kybernetes</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1631,7 +1631,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Kybernetes</t>
+          <t>Nonlinear Dynamics</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1641,7 +1641,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Nonlinear Dynamics</t>
+          <t>International Journal of Applied Earth Observation and Geoinformation</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1651,7 +1651,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>International Journal of Applied Earth Observation and Geoinformation</t>
+          <t>Electronic Library</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1661,7 +1661,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Electronic Library</t>
+          <t>OR Spectrum</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1671,7 +1671,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>OR Spectrum</t>
+          <t>Optimization Letters</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1681,7 +1681,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Optimization Letters</t>
+          <t>European Journal of Industrial Engineering</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1691,7 +1691,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>European Journal of Industrial Engineering</t>
+          <t>Medical Ultrasonography</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1701,7 +1701,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Medical Ultrasonography</t>
+          <t>Acta Clinica Croatica</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1711,7 +1711,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Acta Clinica Croatica</t>
+          <t>Journal of Gastrointestinal and Liver Diseases</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1721,7 +1721,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Journal of Gastrointestinal and Liver Diseases</t>
+          <t>Hepato-Gastroenterology</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1731,7 +1731,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>FME Transactions</t>
+          <t>International Journal of Intelligent Systems</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1741,7 +1741,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Hepato-Gastroenterology</t>
+          <t>Decision Support Systems</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1751,7 +1751,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>International Journal of Intelligent Systems</t>
+          <t>Journal of Electrical Engineering</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1761,7 +1761,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Decision Support Systems</t>
+          <t>Software and Systems Modeling</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1771,7 +1771,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Journal of Electrical Engineering</t>
+          <t>International Journal of Human Computer Studies</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1781,7 +1781,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Software and Systems Modeling</t>
+          <t>IET Computers and Digital Techniques</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1791,7 +1791,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>International Journal of Human Computer Studies</t>
+          <t>Neural, Parallel and Scientific Computations</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1801,7 +1801,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>IET Computers and Digital Techniques</t>
+          <t>Information Processing Letters</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1811,7 +1811,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Neural, Parallel and Scientific Computations</t>
+          <t>IEEE Access</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1821,7 +1821,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Parallel and Distributed Systems</t>
+          <t>Ad-Hoc and Sensor Wireless Networks</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1831,7 +1831,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Information Processing Letters</t>
+          <t>IEEE Annals of the History of Computing</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1841,7 +1841,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>IEEE Access</t>
+          <t>Microprocessing and Microprogramming</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1851,7 +1851,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Ad-Hoc and Sensor Wireless Networks</t>
+          <t>Parallel Computing</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1861,7 +1861,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>IEEE Annals of the History of Computing</t>
+          <t>ACM Computing Surveys</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1871,7 +1871,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IEEE Parallel and Distributed Technology</t>
+          <t>Concurrency Computation</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1881,7 +1881,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Microprocessing and Microprogramming</t>
+          <t>Canadian Conference on Electrical and Computer Engineering</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1891,7 +1891,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Parallel Computing</t>
+          <t>Informatica (Ljubljana)</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1901,7 +1901,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ACM Computing Surveys</t>
+          <t>IEEE Micro</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1911,7 +1911,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Concurrency Computation</t>
+          <t>Revue Roumaine des Sciences Techniques Serie Electrotechnique et Energetique</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1921,7 +1921,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Canadian Conference on Electrical and Computer Engineering</t>
+          <t>International Journal on Semantic Web and Information Systems</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1931,7 +1931,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Informatica (Ljubljana)</t>
+          <t>Journal of Web Semantics</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -1941,7 +1941,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>IEEE Micro</t>
+          <t>Energy and Buildings</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -1951,7 +1951,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Revue Roumaine des Sciences Techniques Serie Electrotechnique et Energetique</t>
+          <t>Advanced Engineering Informatics</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -1961,7 +1961,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>International Journal on Semantic Web and Information Systems</t>
+          <t>Information Processing and Management</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -1971,7 +1971,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Journal of Web Semantics</t>
+          <t>International Journal of Enterprise Information Systems</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -1981,7 +1981,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Energy and Buildings</t>
+          <t>WSEAS Transactions on Information Science and Applications</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -1991,7 +1991,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Advanced Engineering Informatics</t>
+          <t>Water Research</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2001,7 +2001,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Information Processing and Management</t>
+          <t>Journal of Hazardous Materials</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2011,7 +2011,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>International Journal of Enterprise Information Systems</t>
+          <t>Journal of Hydroinformatics</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2021,7 +2021,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>WSEAS Transactions on Information Science and Applications</t>
+          <t>Journal of Information and Knowledge Management</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2031,7 +2031,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Water Research</t>
+          <t>Expert Systems</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2041,7 +2041,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Journal of Hazardous Materials</t>
+          <t>Computers in Industry</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2051,7 +2051,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Journal of Hydroinformatics</t>
+          <t>Mathematics and Computers in Simulation</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2061,7 +2061,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Journal of Information and Knowledge Management</t>
+          <t>IEEE expert</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2071,7 +2071,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Expert Systems</t>
+          <t>IEEE Transactions on Knowledge and Data Engineering</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2081,7 +2081,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Computers in Industry</t>
+          <t>Expert Systems With Applications</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2091,7 +2091,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Mathematics and Computers in Simulation</t>
+          <t>International Journal of Parallel Programming</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2101,7 +2101,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>IEEE expert</t>
+          <t>GeoInformatica</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2111,7 +2111,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Knowledge and Data Engineering</t>
+          <t>Journal of Computer Science and Technology</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2121,7 +2121,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Expert Systems With Applications</t>
+          <t>Proceedings of the IEEE</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2131,7 +2131,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Proceedings of the Euromicro Conference on Software Maintenance and Reengineering, CSMR</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2141,7 +2141,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>International Journal of Parallel Programming</t>
+          <t>International Journal of Network Management</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2151,7 +2151,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>GeoInformatica</t>
+          <t>Elektronika ir Elektrotechnika</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2161,7 +2161,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Journal of Computer Science and Technology</t>
+          <t>Srpski Arhiv za Celokupno Lekarstvo</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2171,7 +2171,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Proceedings of the IEEE</t>
+          <t>Journal of Big Data</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2181,7 +2181,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>IEEE Transactions on Computer-Aided Design of Integrated Circuits and Systems</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2191,7 +2191,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>International Journal of Network Management</t>
+          <t>International Journal of Industrial Engineering : Theory Applications and Practice</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2201,7 +2201,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Elektronika ir Elektrotechnika</t>
+          <t>International Journal of Artificial Intelligence in Education</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2211,7 +2211,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Srpski Arhiv za Celokupno Lekarstvo</t>
+          <t>Social Science Computer Review</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2221,7 +2221,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Journal of Big Data</t>
+          <t>Program</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2231,7 +2231,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Computer-Aided Design of Integrated Circuits and Systems</t>
+          <t>Software - Practice and Experience</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2241,7 +2241,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>International Journal of Industrial Engineering : Theory Applications and Practice</t>
+          <t>Electronic Communications of the EASST</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2251,7 +2251,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>International Journal of Artificial Intelligence in Education</t>
+          <t>International Journal of Web Engineering and Technology</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2261,7 +2261,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Social Science Computer Review</t>
+          <t>International Journal of Knowledge and Learning</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2271,7 +2271,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Program</t>
+          <t>IFIP International Federation for Information Processing</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2281,7 +2281,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Software - Practice and Experience</t>
+          <t>Fuzzy Sets and Systems</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2291,7 +2291,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Electronic Communications of the EASST</t>
+          <t>SIGCSE Bulletin (Association for Computing Machinery, Special Interest Group on Computer Science Education)</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2301,7 +2301,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>International Journal of Web Engineering and Technology</t>
+          <t>Srpski arhiv za celokupno lekarstvo</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2311,7 +2311,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>International Journal of Knowledge and Learning</t>
+          <t>International Journal of Flexible Manufacturing Systems</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2321,7 +2321,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>IFIP International Federation for Information Processing</t>
+          <t>Science and Engineering Ethics</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2331,7 +2331,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Fuzzy Sets and Systems</t>
+          <t>Infusionstherapie und Transfusionsmedizin</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2341,7 +2341,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SIGCSE Bulletin (Association for Computing Machinery, Special Interest Group on Computer Science Education)</t>
+          <t>Australasian Journal of Educational Technology</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2351,7 +2351,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Srpski arhiv za celokupno lekarstvo</t>
+          <t>Internet and Higher Education</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2361,7 +2361,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>International Journal of Flexible Manufacturing Systems</t>
+          <t>IT Professional</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2371,7 +2371,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Science and Engineering Ethics</t>
+          <t>Semantic Web</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2381,7 +2381,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Infusionstherapie und Transfusionsmedizin</t>
+          <t>Journal of Information Technology Education:Research</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2391,7 +2391,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Australasian Journal of Educational Technology</t>
+          <t>Concurrent Engineering Research and Applications</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2401,7 +2401,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Internet and Higher Education</t>
+          <t>International Journal of Cooperative Information Systems</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2411,7 +2411,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>IT Professional</t>
+          <t>International Journal of Computer Integrated Manufacturing</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2421,7 +2421,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Semantic Web</t>
+          <t>Classical and Quantum Gravity</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2431,7 +2431,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Journal of Information Technology Education:Research</t>
+          <t>Ingenieria e Investigacion</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2441,7 +2441,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Concurrent Engineering Research and Applications</t>
+          <t>Physical Review D</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2451,7 +2451,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>International Journal of Cooperative Information Systems</t>
+          <t>Control Engineering and Applied Informatics</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2461,7 +2461,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>International Journal of Computer Integrated Manufacturing</t>
+          <t>Security and Communication Networks</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2471,7 +2471,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Classical and Quantum Gravity</t>
+          <t>Proceedings of the Romanian Academy Series A - Mathematics Physics Technical Sciences Information Science</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2481,7 +2481,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Ingenieria e Investigacion</t>
+          <t>Information</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2491,7 +2491,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Physical Review D</t>
+          <t>Journal of Computing and Information Technology</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2501,7 +2501,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Control Engineering and Applied Informatics</t>
+          <t>Lecture Notes in Artificial Intelligence (Subseries of Lecture Notes in Computer Science)</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2511,7 +2511,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Security and Communication Networks</t>
+          <t>Real-Time Imaging</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2521,7 +2521,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Proceedings of the Romanian Academy Series A - Mathematics Physics Technical Sciences Information Science</t>
+          <t>Proceedings - Frontiers in Education Conference</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2531,7 +2531,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Information</t>
+          <t>Software Quality Journal</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2541,7 +2541,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Journal of Computing and Information Technology</t>
+          <t>Russian Journal of Marine Biology</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2551,7 +2551,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Lecture Notes in Artificial Intelligence (Subseries of Lecture Notes in Computer Science)</t>
+          <t>Transportation Planning and Technology</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2561,7 +2561,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Real-Time Imaging</t>
+          <t>Current Science</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2571,7 +2571,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Proceedings - Frontiers in Education Conference</t>
+          <t>Journal of Environmental Protection and Ecology</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2581,7 +2581,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Software Quality Journal</t>
+          <t>Profesional de la Informacion</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2591,7 +2591,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Russian Journal of Marine Biology</t>
+          <t>Procedia Manufacturing</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2601,7 +2601,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Transportation Planning and Technology</t>
+          <t>Ophtalmologie : organe de la Societe francaise d"ophtalmologie</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2611,7 +2611,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Journal of Advanced Transportation</t>
+          <t>AGROHEMIJA</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2621,7 +2621,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Promet - Traffic - Traffico</t>
+          <t>The International Journal Of Applied Radiation And Isotopes</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2631,7 +2631,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Information Development</t>
+          <t>International Journal on Artificial Intelligence Tools</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2641,7 +2641,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Safety Science</t>
+          <t>Computational and Mathematical Methods in Medicine</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2651,110 +2651,10 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Current Science</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Journal of Environmental Protection and Ecology</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Profesional de la Informacion</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Actual Problems of Economics</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Procedia Manufacturing</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Ophtalmologie : organe de la Societe francaise d"ophtalmologie</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>AGROHEMIJA</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>The International Journal Of Applied Radiation And Isotopes</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>International Journal on Artificial Intelligence Tools</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Computational and Mathematical Methods in Medicine</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
         <v>0</v>
       </c>
     </row>
